--- a/Users Loads6.xlsx
+++ b/Users Loads6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1293463613204512</v>
+        <v>0.1966745697613365</v>
       </c>
       <c r="C2" t="n">
-        <v>3.383476915798394</v>
+        <v>3.398016581806534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2784192302654485</v>
+        <v>0.3479857034036495</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.693518025848468</v>
+        <v>4.288805417111569</v>
       </c>
       <c r="C3" t="n">
-        <v>2.962040282797751</v>
+        <v>7.176095580056504</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1467768969930545</v>
+        <v>0.6570317406796442</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.962728754578448</v>
+        <v>7.158434484609617</v>
       </c>
       <c r="C4" t="n">
-        <v>7.879745178204271</v>
+        <v>6.054386099514097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.225758699799995</v>
+        <v>0.3595808969825859</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.84315684323763</v>
+        <v>10.68787202622885</v>
       </c>
       <c r="C5" t="n">
-        <v>8.72363123656074</v>
+        <v>2.471546475542326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4549980836601853</v>
+        <v>0.4931104655600663</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.10715062792451</v>
+        <v>11.13035619344921</v>
       </c>
       <c r="C6" t="n">
-        <v>3.653997725666054</v>
+        <v>5.416843953226136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2936757057638278</v>
+        <v>0.6790733474543994</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.70661664617023</v>
+        <v>11.23509330811767</v>
       </c>
       <c r="C7" t="n">
-        <v>3.021443554892351</v>
+        <v>7.643562011345336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07786878737268713</v>
+        <v>0.4735205047252736</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.52982904583494</v>
+        <v>14.23300387429347</v>
       </c>
       <c r="C8" t="n">
-        <v>3.705715349017722</v>
+        <v>4.000594141629424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2736307986992644</v>
+        <v>0.6564052726327982</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.06570895086226</v>
+        <v>16.57644194693058</v>
       </c>
       <c r="C9" t="n">
-        <v>6.140178405450047</v>
+        <v>7.820603897435421</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3033552785367104</v>
+        <v>0.5493231789877323</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.96696908485281</v>
+        <v>16.85118715735318</v>
       </c>
       <c r="C10" t="n">
-        <v>4.878644345556845</v>
+        <v>2.208994526369969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4681032261723959</v>
+        <v>0.2519192563578154</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.46396273054644</v>
+        <v>18.75890062103131</v>
       </c>
       <c r="C11" t="n">
-        <v>10.24268302307189</v>
+        <v>3.452063717791699</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4994680822881381</v>
+        <v>0.5305743818499562</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.4166968124539</v>
+        <v>19.73781561500588</v>
       </c>
       <c r="C12" t="n">
-        <v>5.491646429196068</v>
+        <v>2.972830468257571</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2483116716699499</v>
+        <v>0.1930303733771813</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.3011869653314</v>
+        <v>21.53756999053554</v>
       </c>
       <c r="C13" t="n">
-        <v>11.70024000651844</v>
+        <v>2.762419706364087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2652314179609828</v>
+        <v>0.3161397342912934</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.86515745212532</v>
+        <v>24.21904830946389</v>
       </c>
       <c r="C14" t="n">
-        <v>8.732097660397095</v>
+        <v>5.977255868190415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4687085157269465</v>
+        <v>0.5135663869071035</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36.50844105002982</v>
+        <v>26.33950580858796</v>
       </c>
       <c r="C15" t="n">
-        <v>1.885048699960213</v>
+        <v>2.269286081930728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3480231202220749</v>
+        <v>0.4175729612007791</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.44940592925671</v>
+        <v>30.11432172914718</v>
       </c>
       <c r="C16" t="n">
-        <v>9.571984808311283</v>
+        <v>3.502639979772928</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4027078762540175</v>
+        <v>0.2885986895624441</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.20741669546696</v>
+        <v>38.01357964048826</v>
       </c>
       <c r="C17" t="n">
-        <v>11.20523274005377</v>
+        <v>5.687104863253512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3983408698335012</v>
+        <v>0.8249750860183273</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.11681954818368</v>
+        <v>39.40097672098837</v>
       </c>
       <c r="C18" t="n">
-        <v>5.451655081486916</v>
+        <v>2.840729492429538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1883265573435021</v>
+        <v>0.1526213693334381</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.56410191222736</v>
+        <v>40.6309559186617</v>
       </c>
       <c r="C19" t="n">
-        <v>6.747351066428412</v>
+        <v>2.648039142228023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2314379599222123</v>
+        <v>0.4995017264992364</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.21147027537711</v>
+        <v>42.01788358052395</v>
       </c>
       <c r="C20" t="n">
-        <v>6.902561456914063</v>
+        <v>9.032533005398113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3839195768749722</v>
+        <v>0.4584354274854955</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>54.10111028517941</v>
+        <v>42.47961878584243</v>
       </c>
       <c r="C21" t="n">
-        <v>6.215581050033679</v>
+        <v>3.759912426431518</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4385496993247207</v>
+        <v>0.5526496099353536</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.33853869630919</v>
+        <v>48.21154182148152</v>
       </c>
       <c r="C22" t="n">
-        <v>2.505286417356963</v>
+        <v>4.884695167223111</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09978953534227394</v>
+        <v>0.6551279650008076</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>57.54181770660251</v>
+        <v>51.87343159317665</v>
       </c>
       <c r="C23" t="n">
-        <v>10.06676740383029</v>
+        <v>5.1016678442904</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3402948335058221</v>
+        <v>0.5111985910070951</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>59.68399216911545</v>
+        <v>52.6826084417166</v>
       </c>
       <c r="C24" t="n">
-        <v>5.684646967718703</v>
+        <v>4.734940375280638</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1105068653343186</v>
+        <v>0.4836290784663029</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>60.09493739728362</v>
+        <v>53.2225778079198</v>
       </c>
       <c r="C25" t="n">
-        <v>13.3758322604015</v>
+        <v>3.237682982728692</v>
       </c>
       <c r="D25" t="n">
-        <v>0.186357048138179</v>
+        <v>0.2925664639357802</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.70923266388698</v>
+        <v>53.37499097221539</v>
       </c>
       <c r="C26" t="n">
-        <v>13.29951757400629</v>
+        <v>4.113022030632496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1791329692073397</v>
+        <v>0.6839281535466319</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.17655902154203</v>
+        <v>53.44336866090006</v>
       </c>
       <c r="C27" t="n">
-        <v>13.47525897323211</v>
+        <v>4.917759825717884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1805595448073724</v>
+        <v>0.8125443301245073</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.37722155388883</v>
+        <v>55.16454869715721</v>
       </c>
       <c r="C28" t="n">
-        <v>6.189790166333217</v>
+        <v>3.988384839021643</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1845498300163584</v>
+        <v>0.8016877018594017</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.69891818379976</v>
+        <v>55.92935279552461</v>
       </c>
       <c r="C29" t="n">
-        <v>8.240589113148172</v>
+        <v>2.434064770685969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2432772920461533</v>
+        <v>0.298923147838203</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>71.30556408355881</v>
+        <v>56.96420929969987</v>
       </c>
       <c r="C30" t="n">
-        <v>6.83061540259432</v>
+        <v>4.504094893883845</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4230082815443676</v>
+        <v>0.2375575181956196</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>72.98354957496059</v>
+        <v>57.79034672805739</v>
       </c>
       <c r="C31" t="n">
-        <v>8.657602497829094</v>
+        <v>5.837571719407417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.362580281294513</v>
+        <v>0.7354759494416794</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.34799104531224</v>
+        <v>61.10037541310411</v>
       </c>
       <c r="C32" t="n">
-        <v>4.60515061620346</v>
+        <v>4.875486909724401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2998442596567666</v>
+        <v>0.5919267840021381</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>75.4282020984197</v>
+        <v>62.89973489271011</v>
       </c>
       <c r="C33" t="n">
-        <v>4.363737262456892</v>
+        <v>3.168613224775923</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2819181757100104</v>
+        <v>0.2023426971452527</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>80.24606509244134</v>
+        <v>67.03346764765708</v>
       </c>
       <c r="C34" t="n">
-        <v>7.516014308225603</v>
+        <v>9.145873471740076</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3766232852583941</v>
+        <v>0.6045041708393477</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>80.52240066067262</v>
+        <v>69.12075617778238</v>
       </c>
       <c r="C35" t="n">
-        <v>8.959214705117358</v>
+        <v>3.867017836362711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4100436998688575</v>
+        <v>0.4997329595090217</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>81.39268128344612</v>
+        <v>72.21893476295347</v>
       </c>
       <c r="C36" t="n">
-        <v>3.289904909673225</v>
+        <v>6.335309809597432</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09770647411798403</v>
+        <v>0.7107818045511816</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82.33571195614977</v>
+        <v>73.36888922488927</v>
       </c>
       <c r="C37" t="n">
-        <v>14.3510213042221</v>
+        <v>4.280088842762563</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3997376253061222</v>
+        <v>0.3860151713919697</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84.78800322817463</v>
+        <v>75.18176370430578</v>
       </c>
       <c r="C38" t="n">
-        <v>5.621228458117714</v>
+        <v>7.727121116208082</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3792531667130171</v>
+        <v>0.3711330171274874</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>86.23691049708731</v>
+        <v>76.25327634573185</v>
       </c>
       <c r="C39" t="n">
-        <v>8.617763787478946</v>
+        <v>4.063568127503721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.269342378744477</v>
+        <v>0.7214592194034756</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>88.61257591754415</v>
+        <v>82.65041306726405</v>
       </c>
       <c r="C40" t="n">
-        <v>6.213783446441962</v>
+        <v>2.177300345075906</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1692806547139158</v>
+        <v>0.1526963793474064</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>90.43127764040186</v>
+        <v>84.25923031779921</v>
       </c>
       <c r="C41" t="n">
-        <v>1.953233585504075</v>
+        <v>6.756571533362284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3289622009474638</v>
+        <v>0.7380599081193271</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>90.95183903820639</v>
+        <v>84.52736561070161</v>
       </c>
       <c r="C42" t="n">
-        <v>5.454802437274033</v>
+        <v>2.827621651999604</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2562432508360504</v>
+        <v>0.5407362699526078</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>92.09144901530252</v>
+        <v>85.69280114665088</v>
       </c>
       <c r="C43" t="n">
-        <v>4.042455017560202</v>
+        <v>5.399941233491229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1761624818565219</v>
+        <v>0.6774089583142527</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.64007874853935</v>
+        <v>88.36869742799929</v>
       </c>
       <c r="C44" t="n">
-        <v>4.329522571504548</v>
+        <v>6.428142611106714</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4273147691884102</v>
+        <v>0.9045113553892575</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.5663673419093</v>
+        <v>90.05438927264224</v>
       </c>
       <c r="C45" t="n">
-        <v>3.829006744298956</v>
+        <v>7.0372951426153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2777539288325584</v>
+        <v>0.7317701132050558</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95.51143775609094</v>
+        <v>96.00512675544741</v>
       </c>
       <c r="C46" t="n">
-        <v>11.56503307008509</v>
+        <v>7.455404693276503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3686245947058318</v>
+        <v>0.682022596229854</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.51444465225751</v>
+        <v>97.37350423462532</v>
       </c>
       <c r="C47" t="n">
-        <v>5.722884129444775</v>
+        <v>4.691439591554865</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4056763847098175</v>
+        <v>0.4997150791052916</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99.16567777193136</v>
+        <v>98.0518589920964</v>
       </c>
       <c r="C48" t="n">
-        <v>9.108478437740342</v>
+        <v>3.156895405658013</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3055032421715009</v>
+        <v>0.3349985056259042</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>99.99211251130967</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.503179914633444</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2052234198103534</v>
       </c>
     </row>
   </sheetData>
